--- a/data data/Data DTPR Dosen.xlsx
+++ b/data data/Data DTPR Dosen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Cluster_Dosen\data data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cluster_dosen\data data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F510674-DCD0-44E6-A8C5-9A493ED73A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A753D1E4-D93D-4005-962F-8FA7F04EE636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D1AF8D2C-69DA-4C3B-9A77-F0936255304F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="205">
   <si>
     <t>UNIVERSITAS DIPA MAKASSAR</t>
   </si>
@@ -653,7 +653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +694,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -730,12 +736,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,8 +1158,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1173,48 +1180,48 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1260,8 +1267,8 @@
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
+      <c r="B7" s="4">
+        <v>923037002</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -2471,10 +2478,10 @@
       <c r="E49" s="4">
         <v>43</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="4">
+        <v>921037502</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>153</v>
       </c>
       <c r="I49" s="4">
@@ -2500,10 +2507,10 @@
       <c r="E50" s="4">
         <v>44</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="F50" s="4">
+        <v>919029204</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I50" s="4">
@@ -2578,8 +2585,8 @@
       <c r="A53" s="4">
         <v>47</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>148</v>
+      <c r="B53" s="4">
+        <v>930077801</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>149</v>
@@ -2636,10 +2643,10 @@
       <c r="A55" s="4">
         <v>49</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="4">
+        <v>10087201</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E55" s="4">
@@ -2665,10 +2672,10 @@
       <c r="A56" s="4">
         <v>50</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="4">
+        <v>929027601</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>157</v>
       </c>
       <c r="E56" s="4">
@@ -2694,10 +2701,10 @@
       <c r="A57" s="4">
         <v>51</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="4">
+        <v>920038502</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E57" s="4">
@@ -2723,10 +2730,10 @@
       <c r="A58" s="4">
         <v>52</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="4">
+        <v>906128601</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>163</v>
       </c>
       <c r="E58" s="4">
@@ -4527,8 +4534,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4549,48 +4556,48 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5876,8 +5883,8 @@
       <c r="E50" s="4">
         <v>44</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>89</v>
+      <c r="F50" s="4">
+        <v>919029204</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>90</v>
@@ -6128,10 +6135,10 @@
       <c r="A59" s="4">
         <v>53</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="B59" s="4">
+        <v>908048702</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E59" s="4">
@@ -6157,10 +6164,10 @@
       <c r="A60" s="4">
         <v>54</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="B60" s="4">
+        <v>914117202</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E60" s="4">
@@ -6186,10 +6193,10 @@
       <c r="A61" s="4">
         <v>55</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="4">
+        <v>914117504</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E61" s="4">
